--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_450__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_450__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,10 +5417,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-1.394457936286926</c:v>
+                  <c:v>-1.394463896751404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.539812326431274</c:v>
+                  <c:v>1.539809465408325</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>68.69861602783203</c:v>
@@ -5432,37 +5432,37 @@
                   <c:v>93.35868835449219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.39739227294922</c:v>
+                  <c:v>84.39739990234375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.098290920257568</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.60248327255249</c:v>
+                  <c:v>-1.602465629577637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.22864532470703</c:v>
+                  <c:v>86.22866058349609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1156743764877319</c:v>
+                  <c:v>0.1156758442521095</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>92.98169708251953</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4434950351715088</c:v>
+                  <c:v>0.4435009062290192</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.919901430606842</c:v>
+                  <c:v>0.9198881387710571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79.04493713378906</c:v>
+                  <c:v>79.044921875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.93299865722656</c:v>
+                  <c:v>91.93300628662109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.28458404541016</c:v>
+                  <c:v>77.28457641601562</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>72.25297546386719</c:v>
@@ -5471,76 +5471,76 @@
                   <c:v>90.80854797363281</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.013862371444702</c:v>
+                  <c:v>-2.013865232467651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93.53338623046875</c:v>
+                  <c:v>93.53337097167969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83.75551605224609</c:v>
+                  <c:v>83.75550842285156</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>92.26259613037109</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.643062114715576</c:v>
+                  <c:v>-1.643057703971863</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.178120136260986</c:v>
+                  <c:v>-1.17811119556427</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.303979396820068</c:v>
+                  <c:v>4.303976535797119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.573404312133789</c:v>
+                  <c:v>-3.573419094085693</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.071086883544922</c:v>
+                  <c:v>-2.071063280105591</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.02807467430830002</c:v>
+                  <c:v>-0.02808645740151405</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>81.06645202636719</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.016125917434692</c:v>
+                  <c:v>-2.016139268875122</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95.22531127929688</c:v>
+                  <c:v>95.22530364990234</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>95.33450317382812</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7494768500328064</c:v>
+                  <c:v>0.7494547963142395</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>89.21218872070312</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5123252272605896</c:v>
+                  <c:v>0.5123282074928284</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>91.89553070068359</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4909371137619019</c:v>
+                  <c:v>0.490945965051651</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>81.85063171386719</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.72658538818359</c:v>
+                  <c:v>73.72657775878906</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>56.70298385620117</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.59838104248047</c:v>
+                  <c:v>93.598388671875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2909680306911469</c:v>
+                  <c:v>-0.2909592092037201</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>91.99431610107422</c:v>
@@ -5549,19 +5549,19 @@
                   <c:v>95.66917419433594</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.227761268615723</c:v>
+                  <c:v>-2.227737665176392</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.600165128707886</c:v>
+                  <c:v>1.600156307220459</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>95.99580383300781</c:v>
+                  <c:v>95.99578857421875</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.567224264144897</c:v>
+                  <c:v>-1.567221403121948</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.001546859741211</c:v>
+                  <c:v>-3.001551151275635</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>94.44987487792969</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>82.39414978027344</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.6729114651679993</c:v>
+                  <c:v>0.6729128956794739</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>93.19535064697266</c:v>
@@ -5582,49 +5582,49 @@
                   <c:v>93.59761047363281</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.723215341567993</c:v>
+                  <c:v>-1.72321093082428</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>94.77671813964844</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>93.40613555908203</c:v>
+                  <c:v>93.40612030029297</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.353472709655762</c:v>
+                  <c:v>-1.353454947471619</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>94.08827972412109</c:v>
+                  <c:v>94.08827209472656</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.9529188275337219</c:v>
+                  <c:v>-0.9529203176498413</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.2306123375892639</c:v>
+                  <c:v>-0.230603501200676</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.05828786641359329</c:v>
+                  <c:v>-0.05829228460788727</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1788151413202286</c:v>
+                  <c:v>0.1788077801465988</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>94.49501037597656</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.885966777801514</c:v>
+                  <c:v>-3.885984420776367</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>63.69083404541016</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.167355298995972</c:v>
+                  <c:v>-1.167356848716736</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>96.00852966308594</c:v>
+                  <c:v>96.00853729248047</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>97.87429809570312</c:v>
+                  <c:v>97.874267578125</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>97.56917572021484</c:v>
@@ -5633,25 +5633,25 @@
                   <c:v>87.24620056152344</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.47805786132812</c:v>
+                  <c:v>96.47808074951172</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.714845418930054</c:v>
+                  <c:v>-2.714839458465576</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93.60397338867188</c:v>
+                  <c:v>93.60398864746094</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>101.2984237670898</c:v>
+                  <c:v>101.2984085083008</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>82.52099609375</c:v>
+                  <c:v>82.52101135253906</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>85.83193969726562</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.325838327407837</c:v>
+                  <c:v>1.325858950614929</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>59.48183059692383</c:v>
@@ -5660,31 +5660,31 @@
                   <c:v>95.17106628417969</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>64.23403167724609</c:v>
+                  <c:v>64.23403930664062</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.172022700309753</c:v>
+                  <c:v>-1.172007918357849</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.4784035384654999</c:v>
+                  <c:v>-0.4784020483493805</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>95.48201751708984</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.9866402745246887</c:v>
+                  <c:v>-0.9866461753845215</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.311375379562378</c:v>
+                  <c:v>-1.311373949050903</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>96.459716796875</c:v>
+                  <c:v>96.45972442626953</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.4576737582683563</c:v>
+                  <c:v>-0.4576693177223206</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94.95858001708984</c:v>
+                  <c:v>94.95857238769531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.394457936286926</v>
+        <v>-1.394463896751404</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.539812326431274</v>
+        <v>1.539809465408325</v>
       </c>
       <c r="G3">
         <v>104</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>84.39739227294922</v>
+        <v>84.39739990234375</v>
       </c>
       <c r="G7">
         <v>104</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-1.60248327255249</v>
+        <v>-1.602465629577637</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>86.22864532470703</v>
+        <v>86.22866058349609</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1156743764877319</v>
+        <v>0.1156758442521095</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4434950351715088</v>
+        <v>0.4435009062290192</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.919901430606842</v>
+        <v>0.9198881387710571</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>79.04493713378906</v>
+        <v>79.044921875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>91.93299865722656</v>
+        <v>91.93300628662109</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>77.28458404541016</v>
+        <v>77.28457641601562</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-2.013862371444702</v>
+        <v>-2.013865232467651</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>93.53338623046875</v>
+        <v>93.53337097167969</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>83.75551605224609</v>
+        <v>83.75550842285156</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-1.643062114715576</v>
+        <v>-1.643057703971863</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-1.178120136260986</v>
+        <v>-1.17811119556427</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4.303979396820068</v>
+        <v>4.303976535797119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-3.573404312133789</v>
+        <v>-3.573419094085693</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-2.071086883544922</v>
+        <v>-2.071063280105591</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.02807467430830002</v>
+        <v>-0.02808645740151405</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-2.016125917434692</v>
+        <v>-2.016139268875122</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>95.22531127929688</v>
+        <v>95.22530364990234</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.7494768500328064</v>
+        <v>0.7494547963142395</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.5123252272605896</v>
+        <v>0.5123282074928284</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.4909371137619019</v>
+        <v>0.490945965051651</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>73.72658538818359</v>
+        <v>73.72657775878906</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>93.59838104248047</v>
+        <v>93.598388671875</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.2909680306911469</v>
+        <v>-0.2909592092037201</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-2.227761268615723</v>
+        <v>-2.227737665176392</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.600165128707886</v>
+        <v>1.600156307220459</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>95.99580383300781</v>
+        <v>95.99578857421875</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-1.567224264144897</v>
+        <v>-1.567221403121948</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-3.001546859741211</v>
+        <v>-3.001551151275635</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.6729114651679993</v>
+        <v>0.6729128956794739</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-1.723215341567993</v>
+        <v>-1.72321093082428</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>93.40613555908203</v>
+        <v>93.40612030029297</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-1.353472709655762</v>
+        <v>-1.353454947471619</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>94.08827972412109</v>
+        <v>94.08827209472656</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.9529188275337219</v>
+        <v>-0.9529203176498413</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.2306123375892639</v>
+        <v>-0.230603501200676</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.05828786641359329</v>
+        <v>-0.05829228460788727</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.1788151413202286</v>
+        <v>0.1788077801465988</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-3.885966777801514</v>
+        <v>-3.885984420776367</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.167355298995972</v>
+        <v>-1.167356848716736</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>96.00852966308594</v>
+        <v>96.00853729248047</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>97.87429809570312</v>
+        <v>97.874267578125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>96.47805786132812</v>
+        <v>96.47808074951172</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-2.714845418930054</v>
+        <v>-2.714839458465576</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>93.60397338867188</v>
+        <v>93.60398864746094</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>101.2984237670898</v>
+        <v>101.2984085083008</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>82.52099609375</v>
+        <v>82.52101135253906</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.325838327407837</v>
+        <v>1.325858950614929</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>64.23403167724609</v>
+        <v>64.23403930664062</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.172022700309753</v>
+        <v>-1.172007918357849</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.4784035384654999</v>
+        <v>-0.4784020483493805</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.9866402745246887</v>
+        <v>-0.9866461753845215</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-1.311375379562378</v>
+        <v>-1.311373949050903</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>96.459716796875</v>
+        <v>96.45972442626953</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.4576737582683563</v>
+        <v>-0.4576693177223206</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>94.95858001708984</v>
+        <v>94.95857238769531</v>
       </c>
     </row>
     <row r="92" spans="1:6">
